--- a/Team-Data/2020-21/1-18-2020-21.xlsx
+++ b/Team-Data/2020-21/1-18-2020-21.xlsx
@@ -1160,7 +1160,7 @@
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
         <v>18.5</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1781,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
@@ -1966,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2321,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
@@ -3055,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3299,7 +3299,7 @@
         <v>41.6</v>
       </c>
       <c r="J16" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.452</v>
@@ -3323,13 +3323,13 @@
         <v>0.765</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
         <v>34.8</v>
       </c>
       <c r="T16" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U16" t="n">
         <v>27.2</v>
@@ -3401,7 +3401,7 @@
         <v>13</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3672,7 +3672,7 @@
         <v>15.9</v>
       </c>
       <c r="M18" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.403</v>
@@ -3705,7 +3705,7 @@
         <v>9.1</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y18" t="n">
         <v>5.1</v>
@@ -3753,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="AN18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -4311,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>11</v>
@@ -5415,7 +5415,7 @@
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
